--- a/ProjectOne.xlsx
+++ b/ProjectOne.xlsx
@@ -120,19 +120,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +167,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -182,9 +197,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,9 +215,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,30 +230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,8 +244,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,22 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -282,37 +305,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,37 +332,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,145 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +541,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -559,6 +587,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,239 +633,180 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1138,10 +1131,40 @@
   <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="8.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="7.14285714285714" customWidth="1"/>
+    <col min="5" max="5" width="5.28571428571429" customWidth="1"/>
+    <col min="6" max="6" width="6.85714285714286" customWidth="1"/>
+    <col min="7" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="8.57142857142857" customWidth="1"/>
+    <col min="10" max="10" width="5.14285714285714" customWidth="1"/>
+    <col min="11" max="11" width="8.28571428571429" customWidth="1"/>
+    <col min="12" max="12" width="8.14285714285714" customWidth="1"/>
+    <col min="13" max="13" width="8.85714285714286" customWidth="1"/>
+    <col min="14" max="14" width="6.28571428571429" customWidth="1"/>
+    <col min="15" max="15" width="8.28571428571429" customWidth="1"/>
+    <col min="16" max="16" width="7.57142857142857" customWidth="1"/>
+    <col min="17" max="17" width="8.57142857142857" customWidth="1"/>
+    <col min="18" max="18" width="7.28571428571429" customWidth="1"/>
+    <col min="19" max="20" width="8.42857142857143" customWidth="1"/>
+    <col min="21" max="21" width="8.71428571428571" customWidth="1"/>
+    <col min="22" max="22" width="8.42857142857143" customWidth="1"/>
+    <col min="23" max="23" width="8.57142857142857" customWidth="1"/>
+    <col min="24" max="24" width="8.28571428571429" customWidth="1"/>
+    <col min="25" max="25" width="7.71428571428571" customWidth="1"/>
+    <col min="26" max="26" width="6.28571428571429" customWidth="1"/>
+    <col min="27" max="28" width="5.42857142857143" customWidth="1"/>
+    <col min="29" max="29" width="7.42857142857143" customWidth="1"/>
+    <col min="30" max="31" width="6.57142857142857" customWidth="1"/>
+    <col min="32" max="32" width="8.85714285714286" customWidth="1"/>
+    <col min="33" max="33" width="8.14285714285714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="51.75" customHeight="1" spans="1:35">
       <c r="A1" s="2" t="s">

--- a/ProjectOne.xlsx
+++ b/ProjectOne.xlsx
@@ -120,12 +120,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,7 +182,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,17 +296,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,99 +311,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,187 +339,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,65 +544,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +578,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -641,172 +648,172 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1131,40 +1138,10 @@
   <dimension ref="A1:AI1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="$A2:$XFD1273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="8.71428571428571" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="7.14285714285714" customWidth="1"/>
-    <col min="5" max="5" width="5.28571428571429" customWidth="1"/>
-    <col min="6" max="6" width="6.85714285714286" customWidth="1"/>
-    <col min="7" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="8.57142857142857" customWidth="1"/>
-    <col min="10" max="10" width="5.14285714285714" customWidth="1"/>
-    <col min="11" max="11" width="8.28571428571429" customWidth="1"/>
-    <col min="12" max="12" width="8.14285714285714" customWidth="1"/>
-    <col min="13" max="13" width="8.85714285714286" customWidth="1"/>
-    <col min="14" max="14" width="6.28571428571429" customWidth="1"/>
-    <col min="15" max="15" width="8.28571428571429" customWidth="1"/>
-    <col min="16" max="16" width="7.57142857142857" customWidth="1"/>
-    <col min="17" max="17" width="8.57142857142857" customWidth="1"/>
-    <col min="18" max="18" width="7.28571428571429" customWidth="1"/>
-    <col min="19" max="20" width="8.42857142857143" customWidth="1"/>
-    <col min="21" max="21" width="8.71428571428571" customWidth="1"/>
-    <col min="22" max="22" width="8.42857142857143" customWidth="1"/>
-    <col min="23" max="23" width="8.57142857142857" customWidth="1"/>
-    <col min="24" max="24" width="8.28571428571429" customWidth="1"/>
-    <col min="25" max="25" width="7.71428571428571" customWidth="1"/>
-    <col min="26" max="26" width="6.28571428571429" customWidth="1"/>
-    <col min="27" max="28" width="5.42857142857143" customWidth="1"/>
-    <col min="29" max="29" width="7.42857142857143" customWidth="1"/>
-    <col min="30" max="31" width="6.57142857142857" customWidth="1"/>
-    <col min="32" max="32" width="8.85714285714286" customWidth="1"/>
-    <col min="33" max="33" width="8.14285714285714" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="51.75" customHeight="1" spans="1:35">
       <c r="A1" s="2" t="s">
